--- a/output/edit_sequence_design/two_plasmid_design_result.xlsx
+++ b/output/edit_sequence_design/two_plasmid_design_result.xlsx
@@ -152,25 +152,25 @@
     <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
   </si>
   <si>
-    <t>CCAGGTCTCAGCGATTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAACAATTGCCTGTACATTAAGA</t>
+    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCG</t>
   </si>
   <si>
     <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
   </si>
   <si>
-    <t>CCAGGTCTCAttaaGAAAACTCCTTTATTGTCGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTCTAGTGGTGGTGATGCGCTTCGG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTTATTCTTCTTCGCGCCCAATAA</t>
+    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAA</t>
   </si>
   <si>
     <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACC</t>
@@ -179,19 +179,19 @@
     <t>GGTCCAGAGTCGCGCACGCCTCATGGATTC</t>
   </si>
   <si>
-    <t>GGTCCAGAGTGAAGCCATAGAAGCCTGCAT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTATCCTGCCAGCGGAACCTGC</t>
+    <t>GGTCCAGAGTGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGTGGTGTCCGAAAACCCGC</t>
   </si>
   <si>
     <t>GGTCCAGAGTAAGCTTGGGCCATTCCTGCT</t>
   </si>
   <si>
-    <t>GGTCCAGAGTGCAACGAACTCGCCGGCATC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGGAATCAAGGTTGGCTGCTGG</t>
+    <t>GGTCCAGAGTTCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGCTGCTGGACAATTCGGGA</t>
   </si>
   <si>
     <t>GGTCCAGAGTTGATCCTGCCGGTGAAGCGG</t>
@@ -206,25 +206,25 @@
     <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGACTCTGGACC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATACTCTGGACC</t>
+    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCACTCTGGACC</t>
   </si>
   <si>
     <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTACTCTGGACC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTCTAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGACTCTGGACC</t>
+    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGACTCTGGACC</t>
   </si>
   <si>
     <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGACTCTGGACC</t>
@@ -431,10 +431,10 @@
     <t>CGAACGCCTGCGCAATGGC</t>
   </si>
   <si>
-    <t>ATCGTGCTGATGGCCGACGC</t>
-  </si>
-  <si>
-    <t>ACTGGCATTAATCTCGGCTTCGCA</t>
+    <t>TGCGCTACCACAAGATCGTGCT</t>
+  </si>
+  <si>
+    <t>TTCAGTCGGTCACGCAAGGA</t>
   </si>
   <si>
     <t>CCCTGCATTACTTGTCCCGGCA</t>
@@ -443,7 +443,7 @@
     <t>tgaaagacgttacgatcgcc</t>
   </si>
   <si>
-    <t>CCGGATCGCTTTGAGGGTCGT</t>
+    <t>TCGCAACAACCCGGATCGCT</t>
   </si>
   <si>
     <t>TTCCCTGATTATGCTGCTGC</t>
@@ -464,7 +464,7 @@
     <t>actgctgtctaacttcttcgccca</t>
   </si>
   <si>
-    <t>TCGCATTTTTGGGATTGAGCGGC</t>
+    <t>AGGGGTAAGTTCCTCCGCCA</t>
   </si>
   <si>
     <t>TCGGATAAGTAGCGAGGAGT</t>
@@ -485,7 +485,7 @@
     <t>TCAGGTTGGAGCGAAACTGC</t>
   </si>
   <si>
-    <t>CCGGACCGGCATGTTCCTCA</t>
+    <t>GAGGACCGGCATGTTCCTCA</t>
   </si>
   <si>
     <t>GCCCTGGCTGCGAGTCTCAT</t>
@@ -494,7 +494,7 @@
     <t>ACGAAGAGTGTTGCAACCGC</t>
   </si>
   <si>
-    <t>CGTTTCCATCTTACACGCGGCC</t>
+    <t>AAACCGGCCAGGAATGCCCA</t>
   </si>
   <si>
     <t>AGTCCGACAATTAGCCTAGGTGA</t>
@@ -506,19 +506,19 @@
     <t>CGAACCCAAGCTGAGCGCGA</t>
   </si>
   <si>
-    <t>GCGTCCATGGATGATCTGCGC</t>
+    <t>TGCGCATTCTTGATTACATCCCGC</t>
   </si>
   <si>
     <t>GGGCAGGTGTTGTGCGGTTT</t>
   </si>
   <si>
-    <t>GGAACGTGAAGAAGTGGCACA</t>
+    <t>CGGCGCGCTTGAAGGTGAC</t>
   </si>
   <si>
     <t>GGCACCTGCGTCGGTTGGAA</t>
   </si>
   <si>
-    <t>GCGCAGGTCTCCCGCATATCC</t>
+    <t>GCTACGAAGGCTCTGCGTGC</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1152,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1074</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1172,7 +1172,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1060</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1212,7 +1212,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1047</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1232,7 +1232,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1252,7 +1252,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1272,7 +1272,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1917,7 +1917,7 @@
         <v>136</v>
       </c>
       <c r="J3">
-        <v>65.90247007317328</v>
+        <v>64.78597081263268</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1949,7 +1949,7 @@
         <v>137</v>
       </c>
       <c r="J4">
-        <v>65.02802783225161</v>
+        <v>61.74033218325854</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2031,7 +2031,7 @@
         <v>147</v>
       </c>
       <c r="P6">
-        <v>64.89702037417891</v>
+        <v>62.75885207959993</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2063,7 +2063,7 @@
         <v>140</v>
       </c>
       <c r="J7">
-        <v>64.76421932244233</v>
+        <v>64.89768659828428</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2242,7 +2242,7 @@
         <v>157</v>
       </c>
       <c r="F2">
-        <v>64.54478868925031</v>
+        <v>64.92306747221159</v>
       </c>
       <c r="G2" t="s">
         <v>127</v>
@@ -2254,7 +2254,7 @@
         <v>136</v>
       </c>
       <c r="J2">
-        <v>65.90247007317328</v>
+        <v>64.78597081263268</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2370,7 +2370,7 @@
         <v>161</v>
       </c>
       <c r="F6">
-        <v>64.3466720922728</v>
+        <v>64.31358443072048</v>
       </c>
       <c r="G6" t="s">
         <v>131</v>
@@ -2382,7 +2382,7 @@
         <v>140</v>
       </c>
       <c r="J6">
-        <v>64.76421932244233</v>
+        <v>64.89768659828428</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2428,13 +2428,13 @@
         <v>154</v>
       </c>
       <c r="D8">
-        <v>64.65757412841236</v>
+        <v>61.89943671198756</v>
       </c>
       <c r="E8" t="s">
         <v>163</v>
       </c>
       <c r="F8">
-        <v>61.07752647485643</v>
+        <v>64.77108646591313</v>
       </c>
       <c r="G8" t="s">
         <v>128</v>
@@ -2446,7 +2446,7 @@
         <v>137</v>
       </c>
       <c r="J8">
-        <v>65.02802783225161</v>
+        <v>61.74033218325854</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2504,7 +2504,7 @@
         <v>165</v>
       </c>
       <c r="F10">
-        <v>65.52731071342237</v>
+        <v>64.06944111481556</v>
       </c>
       <c r="G10" t="s">
         <v>130</v>
@@ -2534,7 +2534,7 @@
         <v>147</v>
       </c>
       <c r="P10">
-        <v>64.89702037417891</v>
+        <v>62.75885207959993</v>
       </c>
     </row>
   </sheetData>
